--- a/Dataset/Folds/Fold_4/Excel/65.xlsx
+++ b/Dataset/Folds/Fold_4/Excel/65.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3453" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3861" uniqueCount="584">
   <si>
     <t>Doi</t>
   </si>
@@ -1811,6 +1811,201 @@
   </si>
   <si>
     <t>[Xiaobo%Yang%NULL%0,                           Yuan%Yu%NULL%0,                           Jiqian%Xu%NULL%0,                           Huaqing%Shu%NULL%0,                           Jia'an%Xia%NULL%0,                           Hong%Liu%NULL%0,                           Yongran%Wu%NULL%0,                           Lu%Zhang%NULL%0,                           Zhui%Yu%NULL%0,                           Minghao%Fang%NULL%0,                           Ting%Yu%NULL%0,                           Yaxin%Wang%NULL%0,                           Shangwen%Pan%NULL%0,                           Xiaojing%Zou%NULL%0,                           Shiying%Yuan%NULL%0,                           You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,                            Justin J.%Choi%NULL%0,                            Laura C.%Pinheiro%NULL%0,                            Edward J.%Schenck%NULL%0,                            Ruijun%Chen%NULL%0,                            Assem%Jabri%NULL%0,                            Michael J.%Satlin%NULL%0,                            Thomas R.%Campion%NULL%0,                            Musarrat%Nahid%NULL%0,                            Joanna B.%Ringel%NULL%0,                            Katherine L.%Hoffman%NULL%0,                            Mark N.%Alshak%NULL%0,                            Han A.%Li%NULL%0,                            Graham T.%Wehmeyer%NULL%0,                            Graham T.%Wehmeyer%NULL%0,                            Mangala%Rajan%NULL%0,                            Evgeniya%Reshetnyak%NULL%0,                            Nathaniel%Hupert%NULL%0,                            Evelyn M.%Horn%NULL%0,                            Fernando J.%Martinez%NULL%0,                            Roy M.%Gulick%NULL%0,                            Monika M.%Safford%NULL%0,                            Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                            Yeming%Wang%NULL%0,                            Xingwang%Li%NULL%0,                            Lili%Ren%NULL%0,                            Jianping%Zhao%NULL%0,                            Yi%Hu%NULL%0,                            Li%Zhang%NULL%0,                            Guohui%Fan%NULL%0,                            Jiuyang%Xu%NULL%0,                            Xiaoying%Gu%NULL%0,                            Zhenshun%Cheng%NULL%0,                            Ting%Yu%NULL%0,                            Jiaan%Xia%NULL%0,                            Yuan%Wei%NULL%0,                            Wenjuan%Wu%NULL%0,                            Xuelei%Xie%NULL%0,                            Wen%Yin%NULL%0,                            Hui%Li%NULL%0,                            Min%Liu%NULL%0,                            Yan%Xiao%NULL%0,                            Hong%Gao%NULL%0,                            Li%Guo%NULL%0,                            Jungang%Xie%NULL%0,                            Guangfa%Wang%NULL%0,                            Rongmeng%Jiang%NULL%0,                            Zhancheng%Gao%NULL%0,                            Qi%Jin%NULL%0,                            Jianwei%Wang%wangjw28@163.com%0,                            Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                            Yi%Xiang%NULL%1,                            Wei%Fang%NULL%0,                            Yu%Zheng%yuzheng1@cdutcm.edu.cn%1,                            Boqun%Li%279685211@qq.com%2,                            Boqun%Li%279685211@qq.com%0,                            Yanjun%Hu%huyanjun@163.com%1,                            Chunhui%Lang%NULL%1,                            Daoqiu%Huang%NULL%1,                            Qiuyan%Sun%NULL%1,                            Yan%Xiong%NULL%2,                            Xia%Huang%NULL%1,                            Jinglong%Lv%NULL%1,                            Yaling%Luo%NULL%1,                            Li%Shen%NULL%1,                            Haoran%Yang%NULL%1,                            Gu%Huang%NULL%1,                            Ruishan%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,                            Min%Pan%NULL%0,                            Xiumei%Zhang%NULL%0,                            Mingfeng%Han%fyhmf@163.com%0,                            Xiaoyun%Fan%13956988552@126.com%0,                            Fengde%Zhao%NULL%0,                            Manli%Miao%NULL%0,                            Jing%Xu%NULL%0,                            Minglong%Guan%NULL%0,                            Xia%Deng%NULL%0,                            Xu%Chen%NULL%0,                            Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoli%Zhang%NULL%0,                            Huan%Cai%NULL%0,                            Jianhua%Hu%NULL%0,                            Jiangshan%Lian%NULL%0,                            Jueqing%Gu%NULL%0,                            Shanyan%Zhang%NULL%0,                            Chanyuan%Ye%NULL%1,                            Yingfeng%Lu%NULL%0,                            Ciliang%Jin%NULL%0,                            Guodong%Yu%NULL%0,                            Hongyu%Jia%NULL%0,                            Yimin%Zhang%NULL%0,                            Jifang%Sheng%jifang_sheng@zju.edu.cn%0,                            Lanjuan%Li%ljli@zju.edu.cn%2,                            Yida%Yang%yidayang65@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                            Ting%Yu%NULL%0,                            Ronghui%Du%NULL%0,                            Guohui%Fan%NULL%0,                            Ying%Liu%NULL%0,                            Zhibo%Liu%NULL%0,                            Jie%Xiang%NULL%0,                            Yeming%Wang%NULL%0,                            Bin%Song%NULL%0,                            Xiaoying%Gu%NULL%0,                            Lulu%Guan%NULL%0,                            Yuan%Wei%NULL%0,                            Hui%Li%NULL%0,                            Xudong%Wu%NULL%0,                            Jiuyang%Xu%NULL%0,                            Shengjin%Tu%NULL%0,                            Yi%Zhang%NULL%0,                            Hua%Chen%NULL%0,                            Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                            NULL%NULL%NULL%0,                            NULL%NULL%NULL%0,                            Nancy%Chow%NULL%1,                            Katherine%Fleming-Dutra%NULL%1,                            Ryan%Gierke%NULL%1,                            Aron%Hall%NULL%1,                            Michelle%Hughes%NULL%1,                            Tamara%Pilishvili%NULL%1,                            Matthew%Ritchey%NULL%1,                            Katherine%Roguski%NULL%1,                            Tami%Skoff%NULL%1,                            Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                            Di%Wu%NULL%0,                            Huilong%Chen%NULL%0,                            Weiming%Yan%NULL%0,                            Danlei%Yang%NULL%0,                            Guang%Chen%NULL%0,                            Ke%Ma%NULL%0,                            Dong%Xu%NULL%0,                            Haijing%Yu%NULL%0,                            Hongwu%Wang%NULL%0,                            Tao%Wang%NULL%0,                            Wei%Guo%NULL%0,                            Jia%Chen%NULL%0,                            Chen%Ding%NULL%0,                            Xiaoping%Zhang%NULL%0,                            Jiaquan%Huang%NULL%0,                            Meifang%Han%NULL%0,                            Shusheng%Li%NULL%0,                            Xiaoping%Luo%NULL%0,                            Jianping%Zhao%NULL%0,                            Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                            Zheng-yi%Ni%NULL%0,                            Zheng-yi%Ni%NULL%0,                            Yu%Hu%NULL%0,                            Wen-hua%Liang%NULL%0,                            Chun-quan%Ou%NULL%0,                            Jian-xing%He%NULL%0,                            Lei%Liu%NULL%0,                            Hong%Shan%NULL%0,                            Chun-liang%Lei%NULL%0,                            David S.C.%Hui%NULL%0,                            Bin%Du%NULL%0,                            Lan-juan%Li%NULL%0,                            Guang%Zeng%NULL%0,                            Kwok-Yung%Yuen%NULL%0,                            Ru-chong%Chen%NULL%0,                            Chun-li%Tang%NULL%0,                            Tao%Wang%NULL%0,                            Ping-yan%Chen%NULL%0,                            Jie%Xiang%NULL%0,                            Shi-yue%Li%NULL%0,                            Jin-lin%Wang%NULL%0,                            Zi-jing%Liang%NULL%0,                            Yi-xiang%Peng%NULL%0,                            Li%Wei%NULL%0,                            Yong%Liu%NULL%0,                            Ya-hua%Hu%NULL%0,                            Peng%Peng%NULL%0,                            Jian-ming%Wang%NULL%0,                            Ji-yang%Liu%NULL%0,                            Zhong%Chen%NULL%0,                            Gang%Li%NULL%0,                            Zhi-jian%Zheng%NULL%0,                            Shao-qin%Qiu%NULL%0,                            Jie%Luo%NULL%0,                            Chang-jiang%Ye%NULL%0,                            Shao-yong%Zhu%NULL%0,                            Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,                            Shuyun%Xu%NULL%2,                            Muqing%Yu%NULL%2,                            Ke%Wang%NULL%3,                            Yu%Tao%NULL%4,                            Ying%Zhou%NULL%0,                            Jing%Shi%NULL%2,                            Min%Zhou%NULL%0,                            Bo%Wu%NULL%2,                            Zhenyu%Yang%NULL%2,                            Cong%Zhang%NULL%2,                            Junqing%Yue%NULL%2,                            Zhiguo%Zhang%NULL%2,                            Harald%Renz%NULL%2,                            Xiansheng%Liu%NULL%2,                            Jungang%Xie%NULL%0,                            Min%Xie%NULL%2,                            Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,                            Yun%Ling%NULL%0,                            Yun%Ling%NULL%0,                            Tao%Bai%NULL%2,                            Tao%Bai%NULL%0,                            Yusang%Xie%NULL%1,                            Jie%Huang%NULL%2,                            Jie%Huang%NULL%0,                            Jian%Li%NULL%1,                            Weining%Xiong%NULL%1,                            Dexiang%Yang%NULL%1,                            Rong%Chen%NULL%1,                            Fangying%Lu%NULL%1,                            Yunfei%Lu%NULL%1,                            Xuhui%Liu%NULL%1,                            Yuqing%Chen%NULL%2,                            Yuqing%Chen%NULL%0,                            Xin%Li%NULL%0,                            Yong%Li%NULL%0,                            Hanssa Dwarka%Summah%NULL%1,                            Huihuang%Lin%NULL%1,                            Jiayang%Yan%NULL%1,                            Min%Zhou%NULL%0,                            Hongzhou%Lu%NULL%0,                            Hongzhou%Lu%NULL%0,                            Jieming%Qu%NULL%0,                            Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eu Suk%Kim%NULL%1,                            Bum Sik%Chin%NULL%2,                            Bum Sik%Chin%NULL%0,                            Chang Kyung%Kang%NULL%2,                            Chang Kyung%Kang%NULL%0,                            Nam Joong%Kim%NULL%2,                            Nam Joong%Kim%NULL%0,                            Yu Min%Kang%NULL%2,                            Yu Min%Kang%NULL%0,                            Jae-Phil%Choi%NULL%2,                            Jae-Phil%Choi%NULL%0,                            Dong Hyun%Oh%NULL%2,                            Dong Hyun%Oh%NULL%0,                            Jeong-Han%Kim%NULL%2,                            Jeong-Han%Kim%NULL%0,                            Boram%Koh%NULL%2,                            Boram%Koh%NULL%0,                            Seong Eun%Kim%NULL%2,                            Seong Eun%Kim%NULL%0,                            Na Ra%Yun%NULL%2,                            Na Ra%Yun%NULL%0,                            Jae-Hoon%Lee%NULL%2,                            Jae-Hoon%Lee%NULL%0,                            Jin Yong%Kim%NULL%0,                            Jin Yong%Kim%NULL%0,                            Yeonjae%Kim%NULL%2,                            Yeonjae%Kim%NULL%0,                            Ji Hwan%Bang%NULL%2,                            Ji Hwan%Bang%NULL%0,                            Kyoung-Ho%Song%NULL%3,                            Kyoung-Ho%Song%NULL%0,                            Hong Bin%Kim%NULL%3,                            Hong Bin%Kim%NULL%0,                            Ki-hyun%Chung%NULL%2,                            Ki-hyun%Chung%NULL%0,                            Myoung-don%Oh%NULL%2,                            Myoung-don%Oh%NULL%0,                            NULL%NULL%NULL%0,                            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                            Zhao-Wu%Tao%NULL%1,                            Lei%Wang%NULL%1,                            Ming-Li%Yuan%NULL%1,                            Kui%Liu%NULL%3,                            Ling%Zhou%NULL%2,                            Shuang%Wei%NULL%2,                            Yan%Deng%NULL%0,                            Jing%Liu%NULL%0,                            Hui-Guo%Liu%NULL%0,                            Ming%Yang%NULL%0,                            Yi%Hu%NULL%0,                            Pei-Fang%Wei%NULL%0,                            Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu%Shi%NULL%1,                            Xia%Yu%NULL%1,                            Hong%Zhao%NULL%1,                            Hao%Wang%NULL%2,                            Ruihong%Zhao%NULL%0,                            Jifang%Sheng%jifang_sheng@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                            Yuan%Yu%NULL%0,                            Jiqian%Xu%NULL%0,                            Huaqing%Shu%NULL%0,                            Jia'an%Xia%NULL%0,                            Hong%Liu%NULL%0,                            Yongran%Wu%NULL%0,                            Lu%Zhang%NULL%0,                            Zhui%Yu%NULL%0,                            Minghao%Fang%NULL%0,                            Ting%Yu%NULL%0,                            Yaxin%Wang%NULL%0,                            Shangwen%Pan%NULL%0,                            Xiaojing%Zou%NULL%0,                            Shiying%Yuan%NULL%0,                            You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,                             Justin J.%Choi%NULL%0,                             Laura C.%Pinheiro%NULL%0,                             Edward J.%Schenck%NULL%0,                             Ruijun%Chen%NULL%0,                             Assem%Jabri%NULL%0,                             Michael J.%Satlin%NULL%0,                             Thomas R.%Campion%NULL%0,                             Musarrat%Nahid%NULL%0,                             Joanna B.%Ringel%NULL%0,                             Katherine L.%Hoffman%NULL%0,                             Mark N.%Alshak%NULL%0,                             Han A.%Li%NULL%0,                             Graham T.%Wehmeyer%NULL%0,                             Graham T.%Wehmeyer%NULL%0,                             Mangala%Rajan%NULL%0,                             Evgeniya%Reshetnyak%NULL%0,                             Nathaniel%Hupert%NULL%0,                             Evelyn M.%Horn%NULL%0,                             Fernando J.%Martinez%NULL%0,                             Roy M.%Gulick%NULL%0,                             Monika M.%Safford%NULL%0,                             Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                             Yeming%Wang%NULL%0,                             Xingwang%Li%NULL%0,                             Lili%Ren%NULL%0,                             Jianping%Zhao%NULL%0,                             Yi%Hu%NULL%0,                             Li%Zhang%NULL%0,                             Guohui%Fan%NULL%0,                             Jiuyang%Xu%NULL%0,                             Xiaoying%Gu%NULL%0,                             Zhenshun%Cheng%NULL%0,                             Ting%Yu%NULL%0,                             Jiaan%Xia%NULL%0,                             Yuan%Wei%NULL%0,                             Wenjuan%Wu%NULL%0,                             Xuelei%Xie%NULL%0,                             Wen%Yin%NULL%0,                             Hui%Li%NULL%0,                             Min%Liu%NULL%0,                             Yan%Xiao%NULL%0,                             Hong%Gao%NULL%0,                             Li%Guo%NULL%0,                             Jungang%Xie%NULL%0,                             Guangfa%Wang%NULL%0,                             Rongmeng%Jiang%NULL%0,                             Zhancheng%Gao%NULL%0,                             Qi%Jin%NULL%0,                             Jianwei%Wang%wangjw28@163.com%0,                             Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                             Yi%Xiang%NULL%1,                             Wei%Fang%NULL%0,                             Yu%Zheng%yuzheng1@cdutcm.edu.cn%1,                             Boqun%Li%279685211@qq.com%2,                             Boqun%Li%279685211@qq.com%0,                             Yanjun%Hu%huyanjun@163.com%1,                             Chunhui%Lang%NULL%1,                             Daoqiu%Huang%NULL%1,                             Qiuyan%Sun%NULL%1,                             Yan%Xiong%NULL%2,                             Xia%Huang%NULL%1,                             Jinglong%Lv%NULL%1,                             Yaling%Luo%NULL%1,                             Li%Shen%NULL%1,                             Haoran%Yang%NULL%1,                             Gu%Huang%NULL%1,                             Ruishan%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,                             Min%Pan%NULL%0,                             Xiumei%Zhang%NULL%0,                             Mingfeng%Han%fyhmf@163.com%0,                             Xiaoyun%Fan%13956988552@126.com%0,                             Fengde%Zhao%NULL%0,                             Manli%Miao%NULL%0,                             Jing%Xu%NULL%0,                             Minglong%Guan%NULL%0,                             Xia%Deng%NULL%0,                             Xu%Chen%NULL%0,                             Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoli%Zhang%NULL%0,                             Huan%Cai%NULL%0,                             Jianhua%Hu%NULL%0,                             Jiangshan%Lian%NULL%0,                             Jueqing%Gu%NULL%0,                             Shanyan%Zhang%NULL%0,                             Chanyuan%Ye%NULL%1,                             Yingfeng%Lu%NULL%0,                             Ciliang%Jin%NULL%0,                             Guodong%Yu%NULL%0,                             Hongyu%Jia%NULL%0,                             Yimin%Zhang%NULL%0,                             Jifang%Sheng%jifang_sheng@zju.edu.cn%0,                             Lanjuan%Li%ljli@zju.edu.cn%2,                             Yida%Yang%yidayang65@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                             Ting%Yu%NULL%0,                             Ronghui%Du%NULL%0,                             Guohui%Fan%NULL%0,                             Ying%Liu%NULL%0,                             Zhibo%Liu%NULL%0,                             Jie%Xiang%NULL%0,                             Yeming%Wang%NULL%0,                             Bin%Song%NULL%0,                             Xiaoying%Gu%NULL%0,                             Lulu%Guan%NULL%0,                             Yuan%Wei%NULL%0,                             Hui%Li%NULL%0,                             Xudong%Wu%NULL%0,                             Jiuyang%Xu%NULL%0,                             Shengjin%Tu%NULL%0,                             Yi%Zhang%NULL%0,                             Hua%Chen%NULL%0,                             Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                             NULL%NULL%NULL%0,                             NULL%NULL%NULL%0,                             Nancy%Chow%NULL%1,                             Katherine%Fleming-Dutra%NULL%1,                             Ryan%Gierke%NULL%1,                             Aron%Hall%NULL%1,                             Michelle%Hughes%NULL%1,                             Tamara%Pilishvili%NULL%1,                             Matthew%Ritchey%NULL%1,                             Katherine%Roguski%NULL%1,                             Tami%Skoff%NULL%1,                             Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                             Di%Wu%NULL%0,                             Huilong%Chen%NULL%0,                             Weiming%Yan%NULL%0,                             Danlei%Yang%NULL%0,                             Guang%Chen%NULL%0,                             Ke%Ma%NULL%0,                             Dong%Xu%NULL%0,                             Haijing%Yu%NULL%0,                             Hongwu%Wang%NULL%0,                             Tao%Wang%NULL%0,                             Wei%Guo%NULL%0,                             Jia%Chen%NULL%0,                             Chen%Ding%NULL%0,                             Xiaoping%Zhang%NULL%0,                             Jiaquan%Huang%NULL%0,                             Meifang%Han%NULL%0,                             Shusheng%Li%NULL%0,                             Xiaoping%Luo%NULL%0,                             Jianping%Zhao%NULL%0,                             Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                             Zheng-yi%Ni%NULL%0,                             Zheng-yi%Ni%NULL%0,                             Yu%Hu%NULL%0,                             Wen-hua%Liang%NULL%0,                             Chun-quan%Ou%NULL%0,                             Jian-xing%He%NULL%0,                             Lei%Liu%NULL%0,                             Hong%Shan%NULL%0,                             Chun-liang%Lei%NULL%0,                             David S.C.%Hui%NULL%0,                             Bin%Du%NULL%0,                             Lan-juan%Li%NULL%0,                             Guang%Zeng%NULL%0,                             Kwok-Yung%Yuen%NULL%0,                             Ru-chong%Chen%NULL%0,                             Chun-li%Tang%NULL%0,                             Tao%Wang%NULL%0,                             Ping-yan%Chen%NULL%0,                             Jie%Xiang%NULL%0,                             Shi-yue%Li%NULL%0,                             Jin-lin%Wang%NULL%0,                             Zi-jing%Liang%NULL%0,                             Yi-xiang%Peng%NULL%0,                             Li%Wei%NULL%0,                             Yong%Liu%NULL%0,                             Ya-hua%Hu%NULL%0,                             Peng%Peng%NULL%0,                             Jian-ming%Wang%NULL%0,                             Ji-yang%Liu%NULL%0,                             Zhong%Chen%NULL%0,                             Gang%Li%NULL%0,                             Zhi-jian%Zheng%NULL%0,                             Shao-qin%Qiu%NULL%0,                             Jie%Luo%NULL%0,                             Chang-jiang%Ye%NULL%0,                             Shao-yong%Zhu%NULL%0,                             Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,                             Shuyun%Xu%NULL%2,                             Muqing%Yu%NULL%2,                             Ke%Wang%NULL%3,                             Yu%Tao%NULL%4,                             Ying%Zhou%NULL%2,                             Jing%Shi%NULL%2,                             Min%Zhou%NULL%0,                             Bo%Wu%NULL%2,                             Zhenyu%Yang%NULL%2,                             Cong%Zhang%NULL%2,                             Junqing%Yue%NULL%2,                             Zhiguo%Zhang%NULL%2,                             Harald%Renz%NULL%2,                             Xiansheng%Liu%NULL%2,                             Jungang%Xie%NULL%0,                             Min%Xie%NULL%2,                             Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,                             Yun%Ling%NULL%0,                             Yun%Ling%NULL%0,                             Tao%Bai%NULL%2,                             Tao%Bai%NULL%0,                             Yusang%Xie%NULL%1,                             Jie%Huang%NULL%2,                             Jie%Huang%NULL%0,                             Jian%Li%NULL%1,                             Weining%Xiong%NULL%1,                             Dexiang%Yang%NULL%1,                             Rong%Chen%NULL%1,                             Fangying%Lu%NULL%1,                             Yunfei%Lu%NULL%1,                             Xuhui%Liu%NULL%1,                             Yuqing%Chen%NULL%2,                             Yuqing%Chen%NULL%0,                             Xin%Li%NULL%0,                             Yong%Li%NULL%0,                             Hanssa Dwarka%Summah%NULL%1,                             Huihuang%Lin%NULL%1,                             Jiayang%Yan%NULL%1,                             Min%Zhou%NULL%0,                             Hongzhou%Lu%NULL%0,                             Hongzhou%Lu%NULL%0,                             Jieming%Qu%NULL%0,                             Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eu Suk%Kim%NULL%1,                             Bum Sik%Chin%NULL%2,                             Bum Sik%Chin%NULL%0,                             Chang Kyung%Kang%NULL%2,                             Chang Kyung%Kang%NULL%0,                             Nam Joong%Kim%NULL%2,                             Nam Joong%Kim%NULL%0,                             Yu Min%Kang%NULL%2,                             Yu Min%Kang%NULL%0,                             Jae-Phil%Choi%NULL%2,                             Jae-Phil%Choi%NULL%0,                             Dong Hyun%Oh%NULL%2,                             Dong Hyun%Oh%NULL%0,                             Jeong-Han%Kim%NULL%2,                             Jeong-Han%Kim%NULL%0,                             Boram%Koh%NULL%2,                             Boram%Koh%NULL%0,                             Seong Eun%Kim%NULL%2,                             Seong Eun%Kim%NULL%0,                             Na Ra%Yun%NULL%2,                             Na Ra%Yun%NULL%0,                             Jae-Hoon%Lee%NULL%2,                             Jae-Hoon%Lee%NULL%0,                             Jin Yong%Kim%NULL%0,                             Jin Yong%Kim%NULL%0,                             Yeonjae%Kim%NULL%2,                             Yeonjae%Kim%NULL%0,                             Ji Hwan%Bang%NULL%2,                             Ji Hwan%Bang%NULL%0,                             Kyoung-Ho%Song%NULL%3,                             Kyoung-Ho%Song%NULL%0,                             Hong Bin%Kim%NULL%3,                             Hong Bin%Kim%NULL%0,                             Ki-hyun%Chung%NULL%2,                             Ki-hyun%Chung%NULL%0,                             Myoung-don%Oh%NULL%2,                             Myoung-don%Oh%NULL%0,                             NULL%NULL%NULL%0,                             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                             Zhao-Wu%Tao%NULL%1,                             Lei%Wang%NULL%1,                             Ming-Li%Yuan%NULL%1,                             Kui%Liu%NULL%3,                             Ling%Zhou%NULL%2,                             Shuang%Wei%NULL%2,                             Yan%Deng%NULL%0,                             Jing%Liu%NULL%0,                             Hui-Guo%Liu%NULL%0,                             Ming%Yang%NULL%0,                             Yi%Hu%NULL%0,                             Pei-Fang%Wei%NULL%0,                             Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu%Shi%NULL%1,                             Xia%Yu%NULL%1,                             Hong%Zhao%NULL%1,                             Hao%Wang%NULL%2,                             Ruihong%Zhao%NULL%0,                             Jifang%Sheng%jifang_sheng@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                             Yuan%Yu%NULL%0,                             Jiqian%Xu%NULL%0,                             Huaqing%Shu%NULL%0,                             Jia'an%Xia%NULL%0,                             Hong%Liu%NULL%0,                             Yongran%Wu%NULL%0,                             Lu%Zhang%NULL%0,                             Zhui%Yu%NULL%0,                             Minghao%Fang%NULL%0,                             Ting%Yu%NULL%0,                             Yaxin%Wang%NULL%0,                             Shangwen%Pan%NULL%0,                             Xiaojing%Zou%NULL%0,                             Shiying%Yuan%NULL%0,                             You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0, Justin J.%Choi%NULL%0, Laura C.%Pinheiro%NULL%0, Edward J.%Schenck%NULL%0, Ruijun%Chen%NULL%0, Assem%Jabri%NULL%0, Michael J.%Satlin%NULL%0, Thomas R.%Campion%NULL%0, Musarrat%Nahid%NULL%0, Joanna B.%Ringel%NULL%0, Katherine L.%Hoffman%NULL%0, Mark N.%Alshak%NULL%0, Han A.%Li%NULL%0, Graham T.%Wehmeyer%NULL%0, Graham T.%Wehmeyer%NULL%0, Mangala%Rajan%NULL%0, Evgeniya%Reshetnyak%NULL%0, Nathaniel%Hupert%NULL%0, Evelyn M.%Horn%NULL%0, Fernando J.%Martinez%NULL%0, Roy M.%Gulick%NULL%0, Monika M.%Safford%NULL%0, Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>Massachusetts Medical Society</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0, Yeming%Wang%NULL%0, Xingwang%Li%NULL%0, Lili%Ren%NULL%0, Jianping%Zhao%NULL%0, Yi%Hu%NULL%0, Li%Zhang%NULL%0, Guohui%Fan%NULL%0, Jiuyang%Xu%NULL%0, Xiaoying%Gu%NULL%0, Zhenshun%Cheng%NULL%0, Ting%Yu%NULL%0, Jiaan%Xia%NULL%0, Yuan%Wei%NULL%0, Wenjuan%Wu%NULL%0, Xuelei%Xie%NULL%0, Wen%Yin%NULL%0, Hui%Li%NULL%0, Min%Liu%NULL%0, Yan%Xiao%NULL%0, Hong%Gao%NULL%0, Li%Guo%NULL%0, Jungang%Xie%NULL%0, Guangfa%Wang%NULL%0, Rongmeng%Jiang%NULL%0, Zhancheng%Gao%NULL%0, Qi%Jin%NULL%0, Jianwei%Wang%wangjw28@163.com%0, Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>The outbreak of the novel coronavirus in China (SARS‐CoV‐2) that began in December 2019 presents a significant and urgent threat to global health.
+ This study was conducted to provide the international community with a deeper understanding of this new infectious disease.
+ Epidemiological, clinical features, laboratory findings, radiological characteristics, treatment, and clinical outcomes of 135 patients in northeast Chongqing were collected and analyzed in this study.
+ A total of 135 hospitalized patients with COVID‐19 were enrolled.
+ The median age was 47 years (interquartile range, 36‐55), and there was no significant gender difference (53.3% men).
+ The majority of patients had contact with people from the Wuhan area.
+ Forty‐three (31.9%) patients had underlying disease, primarily hypertension (13 [9.6%]), diabetes (12 [8.9%]), cardiovascular disease (7 [5.2%]), and malignancy (4 [3.0%]).
+ Common symptoms included fever (120 [88.9%]), cough (102 [76.5%]), and fatigue (44 [32.5%]).
+ Chest computed tomography scans showed bilateral patchy shadows or ground glass opacity in the lungs of all the patients.
+ All patients received antiviral therapy (135 [100%]) (Kaletra and interferon were both used), antibacterial therapy (59 [43.7%]), and corticosteroids (36 [26.7%]).
+ In addition, many patients received traditional Chinese medicine (TCM) (124 [91.8%]).
+ It is suggested that patients should receive Kaletra early and should be treated by a combination of Western and Chinese medicines.
+ Compared to the mild cases, the severe ones had lower lymphocyte counts and higher plasma levels of Pt, APTT, d‐dimer, lactate dehydrogenase, PCT, ALB, C‐reactive protein, and aspartate aminotransferase.
+ This study demonstrates the clinic features and therapies of 135 COVID‐19 patients.
+ Kaletra and TCM played an important role in the treatment of the viral pneumonia.
+ Further studies are required to explore the role of Kaletra and TCM in the treatment of COVID‐19.</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0, Yi%Xiang%NULL%0, Wei%Fang%NULL%0, Yu%Zheng%yuzheng1@cdutcm.edu.cn%0, Boqun%Li%279685211@qq.com%0, Boqun%Li%279685211@qq.com%0, Yanjun%Hu%huyanjun@163.com%0, Chunhui%Lang%NULL%0, Daoqiu%Huang%NULL%0, Qiuyan%Sun%NULL%0, Yan%Xiong%NULL%0, Xia%Huang%NULL%0, Jinglong%Lv%NULL%0, Yaling%Luo%NULL%0, Li%Shen%NULL%0, Haoran%Yang%NULL%0, Gu%Huang%NULL%0, Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              Do not ignore patients without certain exposure history.
+</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0, Min%Pan%NULL%0, Xiumei%Zhang%NULL%0, Mingfeng%Han%fyhmf@163.com%0, Xiaoyun%Fan%13956988552@126.com%0, Fengde%Zhao%NULL%0, Manli%Miao%NULL%0, Jing%Xu%NULL%0, Minglong%Guan%NULL%0, Xia%Deng%NULL%0, Xu%Chen%NULL%0, Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>The Author(s). Published by Elsevier Ltd on behalf of International Society for Infectious Diseases.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              • COVID-19 has a great threat to world health.
+</t>
+  </si>
+  <si>
+    <t>[Xiaoli%Zhang%NULL%0, Huan%Cai%NULL%0, Jianhua%Hu%NULL%0, Jiangshan%Lian%NULL%0, Jueqing%Gu%NULL%0, Shanyan%Zhang%NULL%0, Chanyuan%Ye%NULL%0, Yingfeng%Lu%NULL%0, Ciliang%Jin%NULL%0, Guodong%Yu%NULL%0, Hongyu%Jia%NULL%0, Yimin%Zhang%NULL%0, Jifang%Sheng%jifang_sheng@zju.edu.cn%0, Lanjuan%Li%ljli@zju.edu.cn%0, Yida%Yang%yidayang65@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0, NULL%NULL%NULL%0, NULL%NULL%NULL%0, Nancy%Chow%NULL%0, Katherine%Fleming-Dutra%NULL%0, Ryan%Gierke%NULL%0, Aron%Hall%NULL%0, Michelle%Hughes%NULL%0, Tamara%Pilishvili%NULL%0, Matthew%Ritchey%NULL%0, Katherine%Roguski%NULL%0, Tami%Skoff%NULL%0, Emily%Ussery%NULL%0]</t>
+  </si>
+  <si>
+    <t>Centers for Disease Control and Prevention</t>
+  </si>
+  <si>
+    <t>BMJ Publishing Group Ltd.</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0, Zheng-yi%Ni%NULL%0, Zheng-yi%Ni%NULL%0, Yu%Hu%NULL%0, Wen-hua%Liang%NULL%0, Chun-quan%Ou%NULL%0, Jian-xing%He%NULL%0, Lei%Liu%NULL%0, Hong%Shan%NULL%0, Chun-liang%Lei%NULL%0, David S.C.%Hui%NULL%0, Bin%Du%NULL%0, Lan-juan%Li%NULL%0, Guang%Zeng%NULL%0, Kwok-Yung%Yuen%NULL%0, Ru-chong%Chen%NULL%0, Chun-li%Tang%NULL%0, Tao%Wang%NULL%0, Ping-yan%Chen%NULL%0, Jie%Xiang%NULL%0, Shi-yue%Li%NULL%0, Jin-lin%Wang%NULL%0, Zi-jing%Liang%NULL%0, Yi-xiang%Peng%NULL%0, Li%Wei%NULL%0, Yong%Liu%NULL%0, Ya-hua%Hu%NULL%0, Peng%Peng%NULL%0, Jian-ming%Wang%NULL%0, Ji-yang%Liu%NULL%0, Zhong%Chen%NULL%0, Gang%Li%NULL%0, Zhi-jian%Zheng%NULL%0, Shao-qin%Qiu%NULL%0, Jie%Luo%NULL%0, Chang-jiang%Ye%NULL%0, Shao-yong%Zhu%NULL%0, Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0, Shuyun%Xu%NULL%0, Muqing%Yu%NULL%0, Ke%Wang%NULL%0, Yu%Tao%NULL%0, Ying%Zhou%NULL%0, Jing%Shi%NULL%0, Min%Zhou%NULL%0, Bo%Wu%NULL%0, Zhenyu%Yang%NULL%0, Cong%Zhang%NULL%0, Junqing%Yue%NULL%0, Zhiguo%Zhang%NULL%0, Harald%Renz%NULL%0, Xiansheng%Liu%NULL%0, Jungang%Xie%NULL%0, Min%Xie%NULL%0, Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>American Academy of Allergy, Asthma &amp;amp; Immunology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rationale: The coronavirus disease (COVID-19) pandemic is now a global health concern.
+</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0, Yun%Ling%NULL%0, Yun%Ling%NULL%0, Tao%Bai%NULL%0, Tao%Bai%NULL%0, Yusang%Xie%NULL%0, Jie%Huang%NULL%0, Jie%Huang%NULL%0, Jian%Li%NULL%0, Weining%Xiong%NULL%0, Dexiang%Yang%NULL%0, Rong%Chen%NULL%0, Fangying%Lu%NULL%0, Yunfei%Lu%NULL%0, Xuhui%Liu%NULL%0, Yuqing%Chen%NULL%0, Yuqing%Chen%NULL%0, Xin%Li%NULL%0, Yong%Li%NULL%0, Hanssa Dwarka%Summah%NULL%0, Huihuang%Lin%NULL%0, Jiayang%Yan%NULL%0, Min%Zhou%NULL%0, Hongzhou%Lu%NULL%0, Hongzhou%Lu%NULL%0, Jieming%Qu%NULL%0, Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>American Thoracic Society</t>
+  </si>
+  <si>
+    <t>[Eu Suk%Kim%NULL%0, Bum Sik%Chin%NULL%2, Bum Sik%Chin%NULL%0, Chang Kyung%Kang%NULL%0, Chang Kyung%Kang%NULL%0, Nam Joong%Kim%NULL%0, Nam Joong%Kim%NULL%0, Yu Min%Kang%NULL%0, Yu Min%Kang%NULL%0, Jae-Phil%Choi%NULL%2, Jae-Phil%Choi%NULL%0, Dong Hyun%Oh%NULL%2, Dong Hyun%Oh%NULL%0, Jeong-Han%Kim%NULL%2, Jeong-Han%Kim%NULL%0, Boram%Koh%NULL%2, Boram%Koh%NULL%0, Seong Eun%Kim%NULL%2, Seong Eun%Kim%NULL%0, Na Ra%Yun%NULL%2, Na Ra%Yun%NULL%0, Jae-Hoon%Lee%NULL%2, Jae-Hoon%Lee%NULL%0, Jin Yong%Kim%NULL%0, Jin Yong%Kim%NULL%0, Yeonjae%Kim%NULL%2, Yeonjae%Kim%NULL%0, Ji Hwan%Bang%NULL%3, Ji Hwan%Bang%NULL%0, Kyoung-Ho%Song%NULL%3, Kyoung-Ho%Song%NULL%0, Hong Bin%Kim%NULL%3, Hong Bin%Kim%NULL%0, Ki-hyun%Chung%NULL%2, Ki-hyun%Chung%NULL%0, Myoung-don%Oh%NULL%0, Myoung-don%Oh%NULL%0, NULL%NULL%NULL%0, NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>The Korean Academy of Medical Sciences</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0, Zhao-Wu%Tao%NULL%0, Lei%Wang%NULL%0, Ming-Li%Yuan%NULL%0, Kui%Liu%NULL%0, Ling%Zhou%NULL%0, Shuang%Wei%NULL%0, Yan%Deng%NULL%0, Jing%Liu%NULL%0, Hui-Guo%Liu%NULL%0, Ming%Yang%NULL%0, Yi%Hu%NULL%0, Pei-Fang%Wei%NULL%0, Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>Wolters Kluwer Health</t>
+  </si>
+  <si>
+    <t>[Yu%Shi%NULL%0, Xia%Yu%NULL%1, Hong%Zhao%NULL%0, Hao%Wang%NULL%0, Ruihong%Zhao%NULL%0, Jifang%Sheng%jifang_sheng@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>BioMed Central</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0, Yuan%Yu%NULL%0, Jiqian%Xu%NULL%0, Huaqing%Shu%NULL%0, Jia'an%Xia%NULL%0, Hong%Liu%NULL%0, Yongran%Wu%NULL%0, Lu%Zhang%NULL%0, Zhui%Yu%NULL%0, Minghao%Fang%NULL%0, Ting%Yu%NULL%0, Yaxin%Wang%NULL%0, Shangwen%Pan%NULL%0, Xiaojing%Zou%NULL%0, Shiying%Yuan%NULL%0, You%Shang%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -2178,7 +2373,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>510</v>
+        <v>556</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
@@ -2190,10 +2385,10 @@
         <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>378</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>557</v>
       </c>
     </row>
     <row r="3">
@@ -2210,7 +2405,7 @@
         <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>511</v>
+        <v>558</v>
       </c>
       <c r="F3" t="s">
         <v>39</v>
@@ -2222,10 +2417,10 @@
         <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>380</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>559</v>
       </c>
     </row>
     <row r="4">
@@ -2239,10 +2434,10 @@
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>560</v>
       </c>
       <c r="E4" t="s">
-        <v>512</v>
+        <v>561</v>
       </c>
       <c r="F4" t="s">
         <v>43</v>
@@ -2254,10 +2449,10 @@
         <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>378</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>562</v>
       </c>
     </row>
     <row r="5">
@@ -2271,10 +2466,10 @@
         <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>563</v>
       </c>
       <c r="E5" t="s">
-        <v>513</v>
+        <v>564</v>
       </c>
       <c r="F5" t="s">
         <v>48</v>
@@ -2286,10 +2481,10 @@
         <v>49</v>
       </c>
       <c r="I5" t="s">
-        <v>380</v>
+        <v>31</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>565</v>
       </c>
     </row>
     <row r="6">
@@ -2303,10 +2498,10 @@
         <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>566</v>
       </c>
       <c r="E6" t="s">
-        <v>514</v>
+        <v>567</v>
       </c>
       <c r="F6" t="s">
         <v>53</v>
@@ -2318,10 +2513,10 @@
         <v>54</v>
       </c>
       <c r="I6" t="s">
-        <v>380</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>565</v>
       </c>
     </row>
     <row r="7">
@@ -2338,7 +2533,7 @@
         <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>515</v>
+        <v>57</v>
       </c>
       <c r="F7" t="s">
         <v>58</v>
@@ -2350,10 +2545,10 @@
         <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>380</v>
+        <v>31</v>
       </c>
       <c r="J7" t="s">
-        <v>31</v>
+        <v>559</v>
       </c>
     </row>
     <row r="8">
@@ -2370,7 +2565,7 @@
         <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>516</v>
+        <v>568</v>
       </c>
       <c r="F8" t="s">
         <v>61</v>
@@ -2382,10 +2577,10 @@
         <v>35</v>
       </c>
       <c r="I8" t="s">
-        <v>378</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>31</v>
+        <v>569</v>
       </c>
     </row>
     <row r="9">
@@ -2402,7 +2597,7 @@
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>517</v>
+        <v>64</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -2414,10 +2609,10 @@
         <v>66</v>
       </c>
       <c r="I9" t="s">
-        <v>378</v>
+        <v>31</v>
       </c>
       <c r="J9" t="s">
-        <v>31</v>
+        <v>570</v>
       </c>
     </row>
     <row r="10">
@@ -2434,7 +2629,7 @@
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>518</v>
+        <v>571</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -2446,10 +2641,10 @@
         <v>35</v>
       </c>
       <c r="I10" t="s">
-        <v>378</v>
+        <v>31</v>
       </c>
       <c r="J10" t="s">
-        <v>31</v>
+        <v>557</v>
       </c>
     </row>
     <row r="11">
@@ -2466,7 +2661,7 @@
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>519</v>
+        <v>572</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -2478,10 +2673,10 @@
         <v>75</v>
       </c>
       <c r="I11" t="s">
-        <v>380</v>
+        <v>31</v>
       </c>
       <c r="J11" t="s">
-        <v>31</v>
+        <v>573</v>
       </c>
     </row>
     <row r="12">
@@ -2492,25 +2687,25 @@
         <v>43880.0</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>520</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G12" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="H12" t="s">
         <v>35</v>
       </c>
       <c r="I12" t="s">
-        <v>390</v>
+        <v>31</v>
       </c>
       <c r="J12" t="s">
         <v>31</v>
@@ -2527,10 +2722,10 @@
         <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>574</v>
       </c>
       <c r="E13" t="s">
-        <v>521</v>
+        <v>575</v>
       </c>
       <c r="F13" t="s">
         <v>79</v>
@@ -2542,10 +2737,10 @@
         <v>80</v>
       </c>
       <c r="I13" t="s">
-        <v>378</v>
+        <v>31</v>
       </c>
       <c r="J13" t="s">
-        <v>31</v>
+        <v>576</v>
       </c>
     </row>
     <row r="14">
@@ -2562,7 +2757,7 @@
         <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>522</v>
+        <v>577</v>
       </c>
       <c r="F14" t="s">
         <v>84</v>
@@ -2574,10 +2769,10 @@
         <v>85</v>
       </c>
       <c r="I14" t="s">
-        <v>378</v>
+        <v>31</v>
       </c>
       <c r="J14" t="s">
-        <v>31</v>
+        <v>578</v>
       </c>
     </row>
     <row r="15">
@@ -2594,7 +2789,7 @@
         <v>87</v>
       </c>
       <c r="E15" t="s">
-        <v>523</v>
+        <v>579</v>
       </c>
       <c r="F15" t="s">
         <v>89</v>
@@ -2606,10 +2801,10 @@
         <v>35</v>
       </c>
       <c r="I15" t="s">
-        <v>378</v>
+        <v>31</v>
       </c>
       <c r="J15" t="s">
-        <v>31</v>
+        <v>580</v>
       </c>
     </row>
     <row r="16">
@@ -2626,7 +2821,7 @@
         <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>524</v>
+        <v>581</v>
       </c>
       <c r="F16" t="s">
         <v>92</v>
@@ -2638,10 +2833,10 @@
         <v>93</v>
       </c>
       <c r="I16" t="s">
-        <v>395</v>
+        <v>31</v>
       </c>
       <c r="J16" t="s">
-        <v>31</v>
+        <v>582</v>
       </c>
     </row>
     <row r="17">
@@ -2658,7 +2853,7 @@
         <v>95</v>
       </c>
       <c r="E17" t="s">
-        <v>525</v>
+        <v>583</v>
       </c>
       <c r="F17" t="s">
         <v>97</v>
@@ -2670,10 +2865,10 @@
         <v>35</v>
       </c>
       <c r="I17" t="s">
-        <v>380</v>
+        <v>31</v>
       </c>
       <c r="J17" t="s">
-        <v>31</v>
+        <v>559</v>
       </c>
     </row>
   </sheetData>
